--- a/ExcelToJsonWizard.v1.0.6/excel_files/SkillInfo.xlsx
+++ b/ExcelToJsonWizard.v1.0.6/excel_files/SkillInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNITY_PROJECTS\IdleHero\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84A64E1-F20D-4A27-91E0-2693BB0EA8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C4F0C2-E058-4598-8CBA-0776AA9E21BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="2595" windowWidth="20310" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24855" yWindow="2790" windowWidth="18870" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>key</t>
   </si>
@@ -196,10 +196,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어 주변을 도는 검은 구체를 생성합니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -212,10 +208,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>몬스터 공격시 불꽃이 생성되며 주변 몬스터들에게 데미지를 줍니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Armor</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -236,10 +228,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>공격시 30%의 메테오가 발사됩니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>치명타 확률이 오릅니다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -257,6 +245,30 @@
   </si>
   <si>
     <t>CriticalHitRate</t>
+  </si>
+  <si>
+    <t>플레이어의 공격이 30%의 확률로 폭발데미지를 줍니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wizard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격시 일정 확률로 작은 폭발을 만듭니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorcerer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlameBurst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근처의 적들에게 지속 데미지를 주는 화염 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -657,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -737,10 +749,10 @@
         <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -760,7 +772,7 @@
         <v>41</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>16</v>
@@ -783,7 +795,7 @@
         <v>42</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>19</v>
@@ -797,16 +809,16 @@
         <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="6">
         <v>10</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>28</v>
@@ -831,7 +843,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>20</v>
@@ -856,7 +868,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>21</v>
@@ -881,7 +893,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>22</v>
@@ -897,16 +909,16 @@
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>45</v>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>23</v>
@@ -919,19 +931,19 @@
         <v>1008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>45</v>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>24</v>
@@ -947,16 +959,16 @@
         <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>25</v>
@@ -972,16 +984,16 @@
         <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>45</v>
+      <c r="F13" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>26</v>
@@ -997,16 +1009,16 @@
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E14" s="6">
         <v>10</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>27</v>
@@ -1022,16 +1034,16 @@
         <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>45</v>
+      <c r="F15" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>29</v>
@@ -1047,16 +1059,16 @@
         <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" s="6">
         <v>10</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>30</v>
@@ -1072,16 +1084,16 @@
         <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>31</v>

--- a/ExcelToJsonWizard.v1.0.6/excel_files/SkillInfo.xlsx
+++ b/ExcelToJsonWizard.v1.0.6/excel_files/SkillInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNITY_PROJECTS\IdleHero\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C4F0C2-E058-4598-8CBA-0776AA9E21BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7488390F-80B7-4308-8F36-41C391F0C0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24855" yWindow="2790" windowWidth="18870" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9570" yWindow="3750" windowWidth="23670" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>key</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Ranger</t>
   </si>
   <si>
-    <t>Sorcerer</t>
-  </si>
-  <si>
     <t>Sword</t>
   </si>
   <si>
@@ -232,10 +229,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어의 공격이 전기를 터트립니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>체력을 회복률이 증가합니다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -256,10 +249,6 @@
   </si>
   <si>
     <t>공격시 일정 확률로 작은 폭발을 만듭니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sorcerer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -669,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -746,13 +735,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -763,16 +752,16 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>16</v>
@@ -786,16 +775,16 @@
         <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>19</v>
@@ -809,16 +798,16 @@
         <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="E6" s="6">
         <v>10</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>28</v>
@@ -834,16 +823,16 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="6">
         <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>20</v>
@@ -859,16 +848,16 @@
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3">
         <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>21</v>
@@ -884,16 +873,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E9" s="6">
         <v>20</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>22</v>
@@ -909,10 +898,10 @@
         <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -931,13 +920,13 @@
         <v>1008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="6">
         <v>0</v>
@@ -959,16 +948,16 @@
         <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>25</v>
@@ -984,10 +973,10 @@
         <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -1009,16 +998,16 @@
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="6">
         <v>10</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>27</v>
@@ -1028,22 +1017,22 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>29</v>
@@ -1053,22 +1042,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="E16" s="6">
-        <v>10</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>30</v>
@@ -1077,27 +1066,6 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>1014</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="I17" s="8"/>
       <c r="J17" s="6"/>
     </row>

--- a/ExcelToJsonWizard.v1.0.6/excel_files/SkillInfo.xlsx
+++ b/ExcelToJsonWizard.v1.0.6/excel_files/SkillInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNITY_PROJECTS\IdleHero\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7488390F-80B7-4308-8F36-41C391F0C0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89059F29-799F-4C75-9F38-37D6C6043BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="3750" windowWidth="23670" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="3660" windowWidth="23670" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>key</t>
   </si>
@@ -112,9 +112,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BlessingOfAether</t>
-  </si>
-  <si>
     <t>BlessingOfAgility</t>
   </si>
   <si>
@@ -157,18 +154,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>마나를 회복률이 증가합니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>공격 회피율이 증가합니다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ManaRecoveryRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EvasionRate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -229,10 +218,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>체력을 회복률이 증가합니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>HealthRecoveryRate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -257,6 +242,10 @@
   </si>
   <si>
     <t>근처의 적들에게 지속 데미지를 주는 화염 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복률이 증가합니다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -659,7 +648,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C4" sqref="C4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -735,13 +724,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -752,16 +741,16 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>16</v>
@@ -775,16 +764,16 @@
         <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>19</v>
@@ -795,44 +784,44 @@
         <v>1003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" s="6">
         <v>10</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>20</v>
@@ -842,7 +831,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>21</v>
@@ -850,14 +839,14 @@
       <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="3">
-        <v>10</v>
+      <c r="D8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="6">
+        <v>20</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>21</v>
@@ -867,22 +856,22 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="6">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>22</v>
@@ -892,18 +881,18 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3">
+        <v>40</v>
+      </c>
+      <c r="E10" s="6">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -917,22 +906,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>24</v>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>24</v>
@@ -942,22 +931,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3">
-        <v>10</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>25</v>
@@ -967,22 +956,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>26</v>
@@ -992,32 +981,32 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E14" s="6">
         <v>10</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>29</v>
@@ -1025,14 +1014,14 @@
       <c r="C15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>54</v>
+      <c r="D15" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E15" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>29</v>
@@ -1041,27 +1030,6 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>1014</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="I16" s="11"/>
       <c r="J16" s="9"/>
     </row>

--- a/ExcelToJsonWizard.v1.0.6/excel_files/SkillInfo.xlsx
+++ b/ExcelToJsonWizard.v1.0.6/excel_files/SkillInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNITY_PROJECTS\IdleHero\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89059F29-799F-4C75-9F38-37D6C6043BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430956A7-9304-4248-A64C-6F2769F1D643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="3660" windowWidth="23670" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22545" yWindow="3735" windowWidth="23670" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>List&lt;Enum&lt;Stat&gt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>StatValue</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -246,6 +242,10 @@
   </si>
   <si>
     <t>체력 회복률이 증가합니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Enum&lt;EStat&gt;&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -648,7 +648,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -675,13 +675,13 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -698,13 +698,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>9</v>
@@ -724,13 +724,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -738,22 +738,22 @@
         <v>1001</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -761,22 +761,22 @@
         <v>1002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -784,22 +784,22 @@
         <v>1003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="E6" s="6">
         <v>10</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="6"/>
@@ -809,22 +809,22 @@
         <v>1005</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="E7" s="3">
         <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="6"/>
@@ -834,22 +834,22 @@
         <v>1006</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="E8" s="6">
         <v>20</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="6"/>
@@ -859,22 +859,22 @@
         <v>1007</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="9"/>
@@ -884,22 +884,22 @@
         <v>1008</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="3"/>
@@ -909,22 +909,22 @@
         <v>1009</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="3"/>
@@ -934,22 +934,22 @@
         <v>1010</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="6"/>
@@ -959,22 +959,22 @@
         <v>1011</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="6">
         <v>10</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="6"/>
@@ -984,22 +984,22 @@
         <v>1013</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="6">
         <v>10</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="6"/>
@@ -1009,22 +1009,22 @@
         <v>1014</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="9"/>

--- a/ExcelToJsonWizard.v1.0.6/excel_files/SkillInfo.xlsx
+++ b/ExcelToJsonWizard.v1.0.6/excel_files/SkillInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\UNITY_PROJECTS\IdleHero\ExcelToJsonWizard.v1.0.6\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430956A7-9304-4248-A64C-6F2769F1D643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF9974F-43F2-4D0B-9C0D-D9641C19AAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22545" yWindow="3735" windowWidth="23670" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>key</t>
   </si>
@@ -92,14 +92,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Warrior</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damage, AttackRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;string&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -138,10 +130,6 @@
     <t>Wizard</t>
   </si>
   <si>
-    <t>공격속도가 느려지는 대신 강한 힘을 얻습니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>빠른 공격속도와 빠른 이동속도를 얻습니다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -163,10 +151,6 @@
   </si>
   <si>
     <t>MoveSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">20, -10 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -648,7 +632,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -698,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>9</v>
@@ -724,254 +708,254 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="6">
+        <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="6">
+        <v>29</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3">
         <v>10</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="3">
-        <v>10</v>
+      <c r="E7" s="6">
+        <v>20</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="6">
-        <v>20</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>39</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>22</v>
+      <c r="D10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13" s="6">
         <v>10</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>25</v>
@@ -981,51 +965,30 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="6">
-        <v>10</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>1014</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I15" s="11"/>
       <c r="J15" s="9"/>
     </row>
